--- a/old_image/servicerequest.xlsx
+++ b/old_image/servicerequest.xlsx
@@ -502,7 +502,7 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the order.</t>
@@ -538,7 +538,7 @@
     <t>ServiceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order +</t>
+    <t>proposal | plan | directive | order +</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -1385,7 +1385,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
